--- a/data/trans_camb/P3A_R1-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 14,31</t>
+          <t>0,96; 13,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 18,22</t>
+          <t>5,1; 18,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 16,65</t>
+          <t>4,72; 16,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 9,0</t>
+          <t>-5,95; 9,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 11,02</t>
+          <t>-2,93; 11,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 11,33</t>
+          <t>-1,68; 11,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,42</t>
+          <t>0,79; 10,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 13,18</t>
+          <t>3,93; 13,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 12,51</t>
+          <t>4,02; 12,62</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 55,98</t>
+          <t>3,06; 54,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,47; 73,32</t>
+          <t>16,04; 72,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 66,97</t>
+          <t>14,66; 68,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 36,81</t>
+          <t>-18,36; 39,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 44,52</t>
+          <t>-8,87; 47,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 48,07</t>
+          <t>-5,22; 46,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 41,04</t>
+          <t>2,48; 39,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,69; 51,9</t>
+          <t>12,99; 53,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 48,87</t>
+          <t>13,49; 49,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 15,68</t>
+          <t>1,59; 15,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 27,04</t>
+          <t>12,14; 26,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 12,88</t>
+          <t>-0,1; 14,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 7,51</t>
+          <t>-6,12; 7,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 16,32</t>
+          <t>3,26; 15,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 11,23</t>
+          <t>-1,15; 10,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 9,92</t>
+          <t>0,97; 10,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,94; 19,65</t>
+          <t>9,31; 19,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 11,03</t>
+          <t>1,9; 11,04</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 62,45</t>
+          <t>4,94; 63,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,89; 111,91</t>
+          <t>37,0; 108,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 51,26</t>
+          <t>-1,6; 59,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 38,96</t>
+          <t>-23,22; 35,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,36; 83,88</t>
+          <t>11,98; 79,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 56,25</t>
+          <t>-4,69; 53,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 42,81</t>
+          <t>3,58; 44,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,42; 84,0</t>
+          <t>34,29; 85,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 48,28</t>
+          <t>6,67; 49,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 11,75</t>
+          <t>1,43; 12,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 19,14</t>
+          <t>7,33; 18,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 9,03</t>
+          <t>-18,01; 8,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 14,67</t>
+          <t>0,13; 13,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 23,67</t>
+          <t>6,64; 24,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 20,16</t>
+          <t>4,73; 19,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 10,82</t>
+          <t>1,83; 11,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 18,6</t>
+          <t>8,46; 18,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 9,54</t>
+          <t>-14,69; 9,43</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,5; 53,35</t>
+          <t>5,37; 57,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,99; 87,88</t>
+          <t>27,16; 85,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,95; 37,34</t>
+          <t>-71,31; 37,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,68; 174,01</t>
+          <t>-0,1; 160,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,9; 273,43</t>
+          <t>38,19; 274,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,83; 231,45</t>
+          <t>29,1; 231,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,63; 56,28</t>
+          <t>6,78; 56,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,47; 95,82</t>
+          <t>35,55; 95,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,45; 45,26</t>
+          <t>-61,93; 44,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,13</t>
+          <t>3,02; 9,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,93; 18,08</t>
+          <t>10,94; 18,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,34; 12,81</t>
+          <t>5,64; 13,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 9,32</t>
+          <t>1,96; 9,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,46; 11,16</t>
+          <t>3,87; 11,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 15,12</t>
+          <t>-2,66; 15,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,18</t>
+          <t>3,18; 8,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,26; 13,65</t>
+          <t>8,49; 13,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 11,88</t>
+          <t>1,03; 11,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,71; 53,05</t>
+          <t>13,89; 54,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>49,38; 97,9</t>
+          <t>49,57; 98,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,84; 68,24</t>
+          <t>25,43; 69,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,84; 85,38</t>
+          <t>12,86; 84,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,88; 101,52</t>
+          <t>25,66; 102,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 124,29</t>
+          <t>-17,87; 124,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,75; 49,21</t>
+          <t>16,54; 51,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,02; 82,62</t>
+          <t>44,48; 84,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,64; 69,87</t>
+          <t>6,44; 68,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 11,74</t>
+          <t>0,79; 12,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 11,25</t>
+          <t>0,8; 11,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,06; 12,48</t>
+          <t>0,18; 12,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,67</t>
+          <t>-0,56; 6,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,03; 8,89</t>
+          <t>1,73; 8,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,21</t>
+          <t>4,37; 13,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,75</t>
+          <t>1,78; 7,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,56</t>
+          <t>3,63; 9,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,41</t>
+          <t>4,26; 11,3</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,98; 80,54</t>
+          <t>4,28; 89,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,0; 83,26</t>
+          <t>3,86; 91,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,45; 91,68</t>
+          <t>0,69; 88,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 108,65</t>
+          <t>-6,67; 97,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,36; 144,02</t>
+          <t>15,86; 139,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>54,03; 207,95</t>
+          <t>46,05; 208,81</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,06; 81,14</t>
+          <t>15,49; 82,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>26,96; 98,75</t>
+          <t>28,11; 97,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>34,24; 120,16</t>
+          <t>36,04; 114,2</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,77</t>
+          <t>-1,99; 0,78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,45</t>
+          <t>-1,05; 2,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,68</t>
+          <t>-0,34; 5,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,81</t>
+          <t>-1,13; 2,96</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,06</t>
+          <t>1,63; 6,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,04</t>
+          <t>0,68; 5,19</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,38</t>
+          <t>-1,19; 2,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,12</t>
+          <t>1,26; 4,8</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,22</t>
+          <t>0,34; 4,34</t>
         </is>
       </c>
     </row>
@@ -1881,37 +1881,37 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-93,19; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 54,22</t>
+          <t>-16,29; 59,78</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>21,43; 120,45</t>
+          <t>24,02; 123,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>7,62; 100,04</t>
+          <t>7,62; 101,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 56,22</t>
+          <t>-20,65; 51,45</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>23,73; 122,44</t>
+          <t>22,37; 116,51</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,08; 100,13</t>
+          <t>2,66; 101,55</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,51; 8,73</t>
+          <t>4,38; 8,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,56; 13,83</t>
+          <t>9,49; 13,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 9,21</t>
+          <t>-0,15; 9,13</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,52</t>
+          <t>1,4; 4,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,26</t>
+          <t>4,78; 8,19</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,31</t>
+          <t>4,08; 10,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,01</t>
+          <t>3,35; 6,09</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>7,65; 10,47</t>
+          <t>7,63; 10,48</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,94; 9,13</t>
+          <t>3,64; 9,17</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>20,89; 44,31</t>
+          <t>19,58; 44,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>43,26; 69,33</t>
+          <t>42,05; 69,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2,61; 45,67</t>
+          <t>-0,37; 45,01</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,78; 40,5</t>
+          <t>10,72; 42,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>37,72; 74,51</t>
+          <t>36,37; 73,27</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>34,74; 91,44</t>
+          <t>35,48; 91,32</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,68; 38,51</t>
+          <t>19,5; 38,11</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>45,23; 66,67</t>
+          <t>44,69; 66,56</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>24,38; 57,45</t>
+          <t>24,04; 57,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R1-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
